--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_8_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_8_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-83072.56541525468</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17519797.43398183</v>
+        <v>16007037.37689377</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28785902.26853178</v>
+        <v>23363882.90668264</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.173652452896168e-10</v>
+        <v>2695503.382234861</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>74.8003045504001</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>70.46480586072632</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>59.9944890099195</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>21.82048350850063</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>60.42909946350712</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.97980340177092</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9340,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9565,19 +9567,19 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9793,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9814,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10048,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10130,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10267,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10285,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10522,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10604,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10741,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>60.42909946350712</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10753,16 +10755,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10978,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>60.42909946350712</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11236,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11473,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22568,31 +22570,31 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -22644,34 +22646,34 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -22726,28 +22728,28 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -22881,34 +22883,34 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -22963,28 +22965,28 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -23042,10 +23044,10 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
@@ -23054,19 +23056,19 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -23118,34 +23120,34 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -23200,28 +23202,28 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -23270,49 +23272,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I11" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M11" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N11" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O11" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175.1632494739823</v>
+        <v>36.22203728504045</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U11" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23349,49 +23351,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I12" t="n">
-        <v>80.86193375000001</v>
+        <v>52.00608518301456</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844597</v>
       </c>
       <c r="M12" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P12" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3645969707207</v>
+        <v>30.88817237036449</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T12" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U12" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -23428,49 +23430,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J13" t="n">
-        <v>103.1837799195093</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K13" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.0978138239248</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23507,49 +23509,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I14" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M14" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N14" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P14" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q14" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>175.1632494739823</v>
+        <v>36.22203728504044</v>
       </c>
       <c r="S14" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T14" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U14" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23586,49 +23588,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I15" t="n">
-        <v>80.86193375000001</v>
+        <v>52.00608518301455</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P15" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3645969707207</v>
+        <v>30.88817237036449</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -23665,49 +23667,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J16" t="n">
-        <v>103.1837799195093</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K16" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.0978138239248</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R16" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S16" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T16" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23744,49 +23746,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K17" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M17" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N17" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O17" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P17" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q17" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R17" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23823,49 +23825,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I18" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K18" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L18" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M18" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P18" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T18" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U18" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -23902,49 +23904,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J19" t="n">
-        <v>103.1837799195093</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K19" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M19" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N19" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O19" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P19" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q19" t="n">
-        <v>123.0978138239248</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S19" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T19" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23981,49 +23983,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H20" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J20" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L20" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M20" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N20" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O20" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P20" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q20" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R20" t="n">
-        <v>175.1632494739823</v>
+        <v>36.22203728504044</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U20" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24060,49 +24062,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I21" t="n">
-        <v>80.86193375000001</v>
+        <v>52.00608518301455</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M21" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P21" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3645969707207</v>
+        <v>30.88817237036449</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U21" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -24139,49 +24141,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I22" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J22" t="n">
-        <v>103.1837799195093</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K22" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L22" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M22" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q22" t="n">
-        <v>123.0978138239248</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T22" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24218,49 +24220,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J23" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M23" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N23" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O23" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P23" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q23" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R23" t="n">
-        <v>175.1632494739823</v>
+        <v>36.22203728504044</v>
       </c>
       <c r="S23" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24297,49 +24299,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I24" t="n">
-        <v>80.86193375000001</v>
+        <v>52.00608518301455</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L24" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M24" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P24" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S24" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24376,49 +24378,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I25" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J25" t="n">
-        <v>103.1837799195093</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K25" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M25" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N25" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O25" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P25" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q25" t="n">
-        <v>123.0978138239248</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24455,49 +24457,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I26" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J26" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K26" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L26" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M26" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N26" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O26" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P26" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q26" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R26" t="n">
-        <v>175.1632494739823</v>
+        <v>36.22203728504044</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24534,49 +24536,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I27" t="n">
-        <v>80.86193375000001</v>
+        <v>52.00608518301455</v>
       </c>
       <c r="J27" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L27" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M27" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P27" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3645969707207</v>
+        <v>30.88817237036449</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U27" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24613,49 +24615,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H28" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J28" t="n">
-        <v>103.1837799195093</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K28" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M28" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N28" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O28" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P28" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>123.0978138239248</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R28" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S28" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24692,49 +24694,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J29" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K29" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L29" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M29" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N29" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O29" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P29" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q29" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>175.1632494739823</v>
+        <v>36.22203728504044</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24771,49 +24773,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I30" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J30" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L30" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M30" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P30" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -24850,49 +24852,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H31" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I31" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J31" t="n">
-        <v>103.1837799195093</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K31" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M31" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N31" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O31" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P31" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.0978138239248</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R31" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24929,49 +24931,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J32" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K32" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L32" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M32" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N32" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O32" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P32" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q32" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R32" t="n">
-        <v>175.1632494739823</v>
+        <v>36.22203728504044</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T32" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -25008,49 +25010,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I33" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L33" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M33" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P33" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3645969707207</v>
+        <v>30.88817237036449</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U33" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -25087,49 +25089,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H34" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I34" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J34" t="n">
-        <v>103.1837799195093</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K34" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M34" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N34" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O34" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P34" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>123.0978138239248</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R34" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S34" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25166,49 +25168,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H35" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I35" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J35" t="n">
-        <v>147.0997974279326</v>
+        <v>74.8003045504001</v>
       </c>
       <c r="K35" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072632</v>
       </c>
       <c r="L35" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M35" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N35" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O35" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P35" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q35" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>175.1632494739823</v>
+        <v>36.22203728504045</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25245,49 +25247,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I36" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J36" t="n">
-        <v>103.0555716666667</v>
+        <v>59.9944890099195</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L36" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844597</v>
       </c>
       <c r="M36" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P36" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850063</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T36" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -25324,49 +25326,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J37" t="n">
-        <v>103.1837799195093</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K37" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M37" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177092</v>
       </c>
       <c r="N37" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P37" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>123.0978138239248</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S37" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T37" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25403,49 +25405,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H38" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J38" t="n">
-        <v>147.0997974279326</v>
+        <v>74.8003045504001</v>
       </c>
       <c r="K38" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072632</v>
       </c>
       <c r="L38" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M38" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N38" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O38" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P38" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q38" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R38" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25482,49 +25484,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I39" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J39" t="n">
-        <v>103.0555716666667</v>
+        <v>59.9944890099195</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L39" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844597</v>
       </c>
       <c r="M39" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P39" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850063</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U39" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -25561,49 +25563,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J40" t="n">
-        <v>103.1837799195093</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K40" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M40" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177092</v>
       </c>
       <c r="N40" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O40" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P40" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0978138239248</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R40" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S40" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T40" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25640,49 +25642,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H41" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I41" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J41" t="n">
-        <v>147.0997974279326</v>
+        <v>74.8003045504001</v>
       </c>
       <c r="K41" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072632</v>
       </c>
       <c r="L41" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M41" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N41" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O41" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P41" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q41" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R41" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25719,49 +25721,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I42" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J42" t="n">
-        <v>103.0555716666667</v>
+        <v>59.9944890099195</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L42" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844597</v>
       </c>
       <c r="M42" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P42" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850063</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U42" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -25798,49 +25800,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J43" t="n">
-        <v>103.1837799195093</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K43" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350712</v>
       </c>
       <c r="L43" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M43" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177092</v>
       </c>
       <c r="N43" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O43" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P43" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q43" t="n">
-        <v>123.0978138239248</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25877,49 +25879,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J44" t="n">
-        <v>147.0997974279326</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K44" t="n">
-        <v>178.8230039740467</v>
+        <v>55.55872096633311</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5602121631146</v>
+        <v>38.63996931854624</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N44" t="n">
-        <v>186.3981141722301</v>
+        <v>13.49162220344888</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9547967801205</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P44" t="n">
-        <v>187.8768090511565</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.6233730229902</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R44" t="n">
-        <v>175.1632494739823</v>
+        <v>114.2924023685842</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25956,49 +25958,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I45" t="n">
-        <v>80.86193375000001</v>
+        <v>49.84739380653136</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>9.847858648713924</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3645969707207</v>
+        <v>26.9953780868618</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26035,49 +26037,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J46" t="n">
-        <v>103.1837799195093</v>
+        <v>28.72524163130364</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>44.74013454325951</v>
       </c>
       <c r="N46" t="n">
-        <v>103.744504878002</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O46" t="n">
-        <v>112.4959374921223</v>
+        <v>51.05679782469147</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9040032899324</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.0978138239248</v>
+        <v>1.753980058091948</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5726649703493</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T46" t="n">
-        <v>230.8471636524779</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>317607.4307414179</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>87044.77335193852</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>238809.415386171</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>297445.9225715514</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>276656.278609551</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>207837.6394785045</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>248490.4135369628</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>231134.6379471261</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>227864.9389903418</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>234843.8252357178</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>232958.880381256</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>236745.2213066958</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>204269.9139510792</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>205299.6173010372</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.014996087178588e-11</v>
+        <v>235663.9001241768</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9947.974097364402</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>27292.5046155624</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>36941.58529661811</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>34565.6259866752</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>26700.63865741275</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31346.66997837941</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29363.15276811236</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>28989.47288733701</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>29787.05988680855</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>29571.63761772721</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>30004.36229492032</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26292.89859713558</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>26410.57897998792</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>30249.3951991587</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>170238.7408618884</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>19401.013527259</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>36297.99208473349</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9947.974097364402</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>27292.50461556241</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>11148.63652276115</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8772.677212818246</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>907.6898835557969</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5553.721204522467</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3570.203994255412</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3196.524113480059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3994.111112951603</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3778.688843870261</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4211.413521063369</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>499.9498232786277</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>617.6302061309627</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1231.087330696964</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>5254.808845494562</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-149065.1481904971</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>21173.59267139136</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>21173.59267139135</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>21173.59267139135</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>21173.59267139135</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>21173.59267139136</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>21173.59267139135</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>21173.59267139135</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>21173.59267139135</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21173.59267139135</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>21173.59267139136</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>4362.485495708173</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>241.0462773162643</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29.14920839582408</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>72.29949287753253</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>53.50986635406473</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3.728962489243122</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>15.69237727382505</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>98.96192827270181</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>87.03372251564269</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.397300547609682</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>44.39417280005286</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>59.89739605565818</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>72.29949287753253</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.50986635406473</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>3.728962489243122</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>15.69237727382505</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>98.96192827270181</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>87.03372251564269</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.397300547609682</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>44.39417280005286</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>59.89739605565818</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>72.29949287753253</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>53.50986635406473</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.728962489243122</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>15.69237727382505</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>98.96192827270181</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>87.03372251564269</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.397300547609682</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>44.39417280005286</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>59.89739605565818</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>72.29949287753253</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>53.50986635406473</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3.728962489243122</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>15.69237727382505</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>98.96192827270181</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>87.03372251564269</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3.397300547609682</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>44.39417280005286</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>59.89739605565818</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>152.9202428445684</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>60.87084710539815</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.07752242084543166</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.5184768983783797</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>99.0063473754294</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>32.19104812914187</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>68.13706491416958</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>7.57517563303735</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_8_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_8_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83072.56541525468</v>
+        <v>-204018.6299171483</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16007037.37689377</v>
+        <v>14331089.88102406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23363882.90668264</v>
+        <v>21523812.6538163</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2695503.382234861</v>
+        <v>3667793.925914148</v>
       </c>
     </row>
     <row r="11">
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8303,13 +8303,13 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
         <v>108.8542060241433</v>
@@ -8458,16 +8458,16 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
@@ -8695,13 +8695,13 @@
         <v>70.46480586072632</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O11" t="n">
         <v>43.42807408235635</v>
@@ -8774,7 +8774,7 @@
         <v>38.39792023795113</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>13.61350529844597</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P12" t="n">
         <v>21.82048350850063</v>
@@ -8929,22 +8929,22 @@
         <v>74.80030455040011</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N14" t="n">
         <v>34.40083276460621</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q14" t="n">
         <v>88.63342487673017</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q15" t="n">
         <v>55.55545282356709</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>69.85452685770001</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>63.05236715997609</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>47.93650005528406</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>27.34726145054154</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>24.00318357209721</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>33.60986879248847</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>57.00046077400765</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>82.34068594611185</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>57.04881769811646</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>33.3632987864562</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>6.84383544603385</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>15.86678416430672</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>51.57556248148847</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
-        <v>60.42909946350711</v>
+        <v>57.39223570718324</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>48.8984026206825</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>48.8824135934538</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>41.27137198649253</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>54.79188769724385</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>62.52822000776997</v>
       </c>
       <c r="Q19" t="n">
         <v>84.9458458910769</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>74.80030455040011</v>
+        <v>69.85452685770001</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>63.05236715997609</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>47.93650005528406</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>27.34726145054154</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>24.00318357209721</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>33.60986879248847</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>57.00046077400765</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>82.34068594611185</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9479,13 +9479,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>59.99448900991949</v>
+        <v>57.04881769811646</v>
       </c>
       <c r="K21" t="n">
-        <v>38.39792023795113</v>
+        <v>33.3632987864562</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>6.84383544603385</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>21.82048350850062</v>
+        <v>15.86678416430672</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>51.57556248148847</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9561,22 +9561,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>57.39223570718324</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>48.8984026206825</v>
       </c>
       <c r="M22" t="n">
-        <v>52.97980340177091</v>
+        <v>48.8824135934538</v>
       </c>
       <c r="N22" t="n">
-        <v>45.27133502328439</v>
+        <v>41.27137198649253</v>
       </c>
       <c r="O22" t="n">
-        <v>58.48650097449923</v>
+        <v>54.79188769724385</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>62.52822000776997</v>
       </c>
       <c r="Q22" t="n">
         <v>84.9458458910769</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>74.80030455040011</v>
+        <v>69.85452685770001</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>63.05236715997609</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>47.93650005528406</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>27.34726145054154</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>24.00318357209721</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>33.60986879248847</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>57.00046077400765</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>82.34068594611185</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9716,13 +9716,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.04881769811646</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>33.3632987864562</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>6.84383544603385</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>15.86678416430672</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>51.57556248148847</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
-        <v>60.42909946350711</v>
+        <v>57.39223570718324</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>48.8984026206825</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>48.8824135934538</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>41.27137198649253</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>54.79188769724385</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>62.52822000776997</v>
       </c>
       <c r="Q25" t="n">
         <v>84.9458458910769</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>69.85452685770001</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>63.05236715997609</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>47.93650005528406</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>27.34726145054154</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>24.00318357209721</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>33.60986879248847</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>57.00046077400765</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>82.34068594611185</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9953,13 +9953,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>57.04881769811646</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>33.3632987864562</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>6.84383544603385</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>15.86678416430672</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>51.57556248148847</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10035,22 +10035,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>60.42909946350711</v>
+        <v>57.39223570718324</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>48.8984026206825</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>48.8824135934538</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>41.27137198649253</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>54.79188769724385</v>
       </c>
       <c r="P28" t="n">
-        <v>65.68959993062856</v>
+        <v>62.52822000776997</v>
       </c>
       <c r="Q28" t="n">
         <v>84.9458458910769</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>69.85452685770001</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>63.05236715997609</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>47.93650005528406</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>27.34726145054154</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>24.00318357209721</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>33.60986879248847</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>57.00046077400765</v>
       </c>
       <c r="Q29" t="n">
-        <v>88.63342487673017</v>
+        <v>82.34068594611185</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>57.04881769811646</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>33.3632987864562</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>6.84383544603385</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>15.86678416430672</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>51.57556248148847</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,22 +10272,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>60.42909946350711</v>
+        <v>57.39223570718324</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>48.8984026206825</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>48.8824135934538</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>41.27137198649253</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>54.79188769724385</v>
       </c>
       <c r="P31" t="n">
-        <v>65.68959993062856</v>
+        <v>62.52822000776997</v>
       </c>
       <c r="Q31" t="n">
         <v>84.9458458910769</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>69.85452685770001</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>63.05236715997609</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>47.93650005528406</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>27.34726145054154</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>24.00318357209721</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>33.60986879248847</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>57.00046077400765</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>82.34068594611185</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>59.99448900991949</v>
+        <v>57.04881769811646</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>33.3632987864562</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>6.84383544603385</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>21.82048350850062</v>
+        <v>15.86678416430672</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>51.57556248148847</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10509,22 +10509,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>60.42909946350711</v>
+        <v>57.39223570718324</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>48.8984026206825</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>48.8824135934538</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>41.27137198649253</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>54.79188769724385</v>
       </c>
       <c r="P34" t="n">
-        <v>65.68959993062856</v>
+        <v>62.52822000776997</v>
       </c>
       <c r="Q34" t="n">
         <v>84.9458458910769</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>69.85452685770001</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>63.05236715997609</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>47.93650005528406</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>27.34726145054154</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>24.00318357209721</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>33.60986879248847</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>57.00046077400765</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.63342487673017</v>
+        <v>82.34068594611185</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>57.04881769811646</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>33.3632987864562</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>6.84383544603385</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>15.86678416430672</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>51.57556248148847</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
-        <v>60.42909946350712</v>
+        <v>57.39223570718324</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>48.8984026206825</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>48.8824135934538</v>
       </c>
       <c r="N37" t="n">
-        <v>45.27133502328439</v>
+        <v>41.27137198649253</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>54.79188769724385</v>
       </c>
       <c r="P37" t="n">
-        <v>65.68959993062856</v>
+        <v>62.52822000776997</v>
       </c>
       <c r="Q37" t="n">
         <v>84.9458458910769</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>69.85452685770001</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>63.05236715997609</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>47.93650005528406</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>27.34726145054154</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>24.00318357209721</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>33.60986879248847</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>57.00046077400765</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>82.34068594611185</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>57.04881769811646</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>33.3632987864562</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>6.84383544603385</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>15.86678416430672</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>51.57556248148847</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>60.42909946350712</v>
+        <v>57.39223570718324</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>48.8984026206825</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>48.8824135934538</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>41.27137198649253</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>54.79188769724385</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>62.52822000776997</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>69.85452685770001</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>63.05236715997609</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>47.93650005528406</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>27.34726145054154</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>24.00318357209721</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>33.60986879248847</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>57.00046077400765</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>82.34068594611185</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>57.04881769811646</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>33.3632987864562</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>6.84383544603385</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>15.86678416430672</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>51.57556248148847</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>57.39223570718324</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>48.8984026206825</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>48.8824135934538</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>41.27137198649253</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>54.79188769724385</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>62.52822000776997</v>
       </c>
       <c r="Q43" t="n">
         <v>84.9458458910769</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>69.85452685770001</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>63.05236715997607</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>47.93650005528406</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>27.34726145054154</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>24.00318357209721</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>33.60986879248847</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>57.00046077400765</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>82.34068594611185</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>57.04881769811645</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>33.3632987864562</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6.843835446033836</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>15.86678416430672</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>51.57556248148847</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11457,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>57.39223570718323</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>48.89840262068249</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>48.88241359345379</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>41.27137198649253</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>54.79188769724385</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>62.52822000776997</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -22807,31 +22807,31 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -22895,13 +22895,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -23050,16 +23050,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -23287,13 +23287,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -23366,7 +23366,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>13.61350529844597</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23375,7 +23375,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23521,22 +23521,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.46480586072633</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>43.42807408235635</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>65.38007183670243</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23612,10 +23612,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>21.82048350850062</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -23746,49 +23746,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>411.0910991671059</v>
+        <v>411.0328269958786</v>
       </c>
       <c r="H17" t="n">
-        <v>320.7690783136127</v>
+        <v>320.1722984400315</v>
       </c>
       <c r="I17" t="n">
-        <v>138.2481755487984</v>
+        <v>136.0016376675592</v>
       </c>
       <c r="J17" t="n">
-        <v>74.80030455040011</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>70.46480586072633</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>43.42807408235635</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>65.38007183670243</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.63342487673017</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>121.6533831199176</v>
+        <v>32.56159800918574</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9452104078107</v>
+        <v>164.6173333059695</v>
       </c>
       <c r="T17" t="n">
-        <v>218.3863943170558</v>
+        <v>218.1313078875085</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2683351220861</v>
+        <v>252.2636733483879</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23825,22 +23825,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>126.9854363758741</v>
+        <v>126.9542580155802</v>
       </c>
       <c r="H18" t="n">
-        <v>94.5366171262896</v>
+        <v>94.23549980450369</v>
       </c>
       <c r="I18" t="n">
-        <v>65.16955647617495</v>
+        <v>50.93261970798304</v>
       </c>
       <c r="J18" t="n">
-        <v>59.99448900991949</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23849,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>21.82048350850062</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>90.06634312508154</v>
+        <v>28.95237908825671</v>
       </c>
       <c r="S18" t="n">
-        <v>142.8056045053299</v>
+        <v>142.22648013759</v>
       </c>
       <c r="T18" t="n">
-        <v>184.9611451887135</v>
+        <v>184.8354745171779</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2778078354777</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -23904,49 +23904,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8484416772834</v>
+        <v>166.822302787362</v>
       </c>
       <c r="H19" t="n">
-        <v>154.3816182209092</v>
+        <v>154.1492197268807</v>
       </c>
       <c r="I19" t="n">
-        <v>131.269940117466</v>
+        <v>130.4838724096476</v>
       </c>
       <c r="J19" t="n">
-        <v>32.44152677383354</v>
+        <v>30.59350725638981</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>52.97980340177091</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>45.27133502328439</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>65.68959993062856</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.155510525861384</v>
+        <v>3.966734934351265</v>
       </c>
       <c r="R19" t="n">
-        <v>130.8455323770033</v>
+        <v>129.6702328356279</v>
       </c>
       <c r="S19" t="n">
-        <v>204.9135390503414</v>
+        <v>204.4580094868928</v>
       </c>
       <c r="T19" t="n">
-        <v>229.2145141050582</v>
+        <v>229.1028297572121</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2960690235111</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23983,49 +23983,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>411.0910991671059</v>
+        <v>411.0328269958786</v>
       </c>
       <c r="H20" t="n">
-        <v>320.7690783136127</v>
+        <v>320.1722984400315</v>
       </c>
       <c r="I20" t="n">
-        <v>138.2481755487984</v>
+        <v>136.0016376675592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>70.46480586072633</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>43.42807408235635</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>65.38007183670243</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.63342487673017</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>36.22203728504044</v>
+        <v>32.56159800918574</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9452104078107</v>
+        <v>164.6173333059695</v>
       </c>
       <c r="T20" t="n">
-        <v>218.3863943170558</v>
+        <v>218.1313078875085</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2683351220861</v>
+        <v>252.2636733483879</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24062,13 +24062,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>126.9854363758741</v>
+        <v>126.9542580155802</v>
       </c>
       <c r="H21" t="n">
-        <v>94.5366171262896</v>
+        <v>94.23549980450369</v>
       </c>
       <c r="I21" t="n">
-        <v>52.00608518301455</v>
+        <v>50.93261970798304</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24077,7 +24077,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24086,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>30.88817237036449</v>
+        <v>28.95237908825671</v>
       </c>
       <c r="S21" t="n">
-        <v>142.8056045053299</v>
+        <v>142.22648013759</v>
       </c>
       <c r="T21" t="n">
-        <v>184.9611451887135</v>
+        <v>184.8354745171779</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2778078354777</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -24141,22 +24141,22 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8484416772834</v>
+        <v>166.822302787362</v>
       </c>
       <c r="H22" t="n">
-        <v>154.3816182209092</v>
+        <v>154.1492197268807</v>
       </c>
       <c r="I22" t="n">
-        <v>131.269940117466</v>
+        <v>130.4838724096476</v>
       </c>
       <c r="J22" t="n">
-        <v>32.44152677383354</v>
+        <v>30.59350725638981</v>
       </c>
       <c r="K22" t="n">
-        <v>60.42909946350711</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>65.68959993062856</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.155510525861384</v>
+        <v>3.966734934351265</v>
       </c>
       <c r="R22" t="n">
-        <v>130.8455323770033</v>
+        <v>129.6702328356279</v>
       </c>
       <c r="S22" t="n">
-        <v>204.9135390503414</v>
+        <v>204.4580094868928</v>
       </c>
       <c r="T22" t="n">
-        <v>229.2145141050582</v>
+        <v>229.1028297572121</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2960690235111</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24220,49 +24220,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.0910991671059</v>
+        <v>411.0328269958786</v>
       </c>
       <c r="H23" t="n">
-        <v>320.7690783136127</v>
+        <v>320.1722984400315</v>
       </c>
       <c r="I23" t="n">
-        <v>138.2481755487984</v>
+        <v>136.0016376675592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>70.46480586072633</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>43.42807408235635</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>65.38007183670243</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.63342487673017</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>36.22203728504044</v>
+        <v>32.56159800918574</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9452104078107</v>
+        <v>164.6173333059695</v>
       </c>
       <c r="T23" t="n">
-        <v>218.3863943170558</v>
+        <v>218.1313078875085</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2683351220861</v>
+        <v>252.2636733483879</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24299,22 +24299,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>126.9854363758741</v>
+        <v>126.9542580155802</v>
       </c>
       <c r="H24" t="n">
-        <v>94.5366171262896</v>
+        <v>94.23549980450369</v>
       </c>
       <c r="I24" t="n">
-        <v>52.00608518301455</v>
+        <v>50.93261970798304</v>
       </c>
       <c r="J24" t="n">
-        <v>59.99448900991949</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24323,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>21.82048350850062</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>90.06634312508154</v>
+        <v>28.95237908825671</v>
       </c>
       <c r="S24" t="n">
-        <v>142.8056045053299</v>
+        <v>142.22648013759</v>
       </c>
       <c r="T24" t="n">
-        <v>184.9611451887135</v>
+        <v>184.8354745171779</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2778078354777</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24378,49 +24378,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.8484416772834</v>
+        <v>166.822302787362</v>
       </c>
       <c r="H25" t="n">
-        <v>154.3816182209092</v>
+        <v>154.1492197268807</v>
       </c>
       <c r="I25" t="n">
-        <v>131.269940117466</v>
+        <v>130.4838724096476</v>
       </c>
       <c r="J25" t="n">
-        <v>32.44152677383354</v>
+        <v>30.59350725638981</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>52.97980340177091</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>45.27133502328439</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>65.68959993062856</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.155510525861384</v>
+        <v>3.966734934351265</v>
       </c>
       <c r="R25" t="n">
-        <v>130.8455323770033</v>
+        <v>129.6702328356279</v>
       </c>
       <c r="S25" t="n">
-        <v>204.9135390503414</v>
+        <v>204.4580094868928</v>
       </c>
       <c r="T25" t="n">
-        <v>229.2145141050582</v>
+        <v>229.1028297572121</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2960690235111</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24457,49 +24457,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.0910991671059</v>
+        <v>411.0328269958786</v>
       </c>
       <c r="H26" t="n">
-        <v>320.7690783136127</v>
+        <v>320.1722984400315</v>
       </c>
       <c r="I26" t="n">
-        <v>138.2481755487984</v>
+        <v>136.0016376675592</v>
       </c>
       <c r="J26" t="n">
-        <v>74.80030455040011</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>70.46480586072633</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>43.42807408235635</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>65.38007183670243</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>88.63342487673017</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>36.22203728504044</v>
+        <v>32.56159800918574</v>
       </c>
       <c r="S26" t="n">
-        <v>165.9452104078107</v>
+        <v>164.6173333059695</v>
       </c>
       <c r="T26" t="n">
-        <v>218.3863943170558</v>
+        <v>218.1313078875085</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2683351220861</v>
+        <v>252.2636733483879</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24536,22 +24536,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>126.9854363758741</v>
+        <v>126.9542580155802</v>
       </c>
       <c r="H27" t="n">
-        <v>94.5366171262896</v>
+        <v>94.23549980450369</v>
       </c>
       <c r="I27" t="n">
-        <v>52.00608518301455</v>
+        <v>50.93261970798304</v>
       </c>
       <c r="J27" t="n">
-        <v>59.99448900991949</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24560,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>21.82048350850062</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>30.88817237036449</v>
+        <v>28.95237908825671</v>
       </c>
       <c r="S27" t="n">
-        <v>142.8056045053299</v>
+        <v>142.22648013759</v>
       </c>
       <c r="T27" t="n">
-        <v>184.9611451887135</v>
+        <v>184.8354745171779</v>
       </c>
       <c r="U27" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2778078354777</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24615,49 +24615,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.8484416772834</v>
+        <v>166.822302787362</v>
       </c>
       <c r="H28" t="n">
-        <v>154.3816182209092</v>
+        <v>154.1492197268807</v>
       </c>
       <c r="I28" t="n">
-        <v>131.269940117466</v>
+        <v>130.4838724096476</v>
       </c>
       <c r="J28" t="n">
-        <v>32.44152677383354</v>
+        <v>30.59350725638981</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>52.97980340177091</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>45.27133502328439</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.155510525861384</v>
+        <v>3.966734934351265</v>
       </c>
       <c r="R28" t="n">
-        <v>130.8455323770033</v>
+        <v>129.6702328356279</v>
       </c>
       <c r="S28" t="n">
-        <v>204.9135390503414</v>
+        <v>204.4580094868928</v>
       </c>
       <c r="T28" t="n">
-        <v>229.2145141050582</v>
+        <v>229.1028297572121</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2960690235111</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24694,49 +24694,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.0910991671059</v>
+        <v>411.0328269958786</v>
       </c>
       <c r="H29" t="n">
-        <v>320.7690783136127</v>
+        <v>320.1722984400315</v>
       </c>
       <c r="I29" t="n">
-        <v>138.2481755487984</v>
+        <v>136.0016376675592</v>
       </c>
       <c r="J29" t="n">
-        <v>74.80030455040011</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>70.46480586072633</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>43.42807408235635</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>65.38007183670243</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>36.22203728504044</v>
+        <v>32.56159800918574</v>
       </c>
       <c r="S29" t="n">
-        <v>165.9452104078107</v>
+        <v>164.6173333059695</v>
       </c>
       <c r="T29" t="n">
-        <v>218.3863943170558</v>
+        <v>218.1313078875085</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2683351220861</v>
+        <v>252.2636733483879</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24773,22 +24773,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>126.9854363758741</v>
+        <v>126.9542580155802</v>
       </c>
       <c r="H30" t="n">
-        <v>94.5366171262896</v>
+        <v>94.23549980450369</v>
       </c>
       <c r="I30" t="n">
-        <v>65.16955647617495</v>
+        <v>50.93261970798304</v>
       </c>
       <c r="J30" t="n">
-        <v>59.99448900991949</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24797,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>21.82048350850062</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>90.06634312508154</v>
+        <v>28.95237908825671</v>
       </c>
       <c r="S30" t="n">
-        <v>142.8056045053299</v>
+        <v>142.22648013759</v>
       </c>
       <c r="T30" t="n">
-        <v>184.9611451887135</v>
+        <v>184.8354745171779</v>
       </c>
       <c r="U30" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2778078354777</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -24852,49 +24852,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.8484416772834</v>
+        <v>166.822302787362</v>
       </c>
       <c r="H31" t="n">
-        <v>154.3816182209092</v>
+        <v>154.1492197268807</v>
       </c>
       <c r="I31" t="n">
-        <v>131.269940117466</v>
+        <v>130.4838724096476</v>
       </c>
       <c r="J31" t="n">
-        <v>32.44152677383354</v>
+        <v>30.59350725638981</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>52.97980340177091</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>45.27133502328439</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.155510525861384</v>
+        <v>3.966734934351265</v>
       </c>
       <c r="R31" t="n">
-        <v>130.8455323770033</v>
+        <v>129.6702328356279</v>
       </c>
       <c r="S31" t="n">
-        <v>204.9135390503414</v>
+        <v>204.4580094868928</v>
       </c>
       <c r="T31" t="n">
-        <v>229.2145141050582</v>
+        <v>229.1028297572121</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2960690235111</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24931,49 +24931,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.0910991671059</v>
+        <v>411.0328269958786</v>
       </c>
       <c r="H32" t="n">
-        <v>320.7690783136127</v>
+        <v>320.1722984400315</v>
       </c>
       <c r="I32" t="n">
-        <v>138.2481755487984</v>
+        <v>136.0016376675592</v>
       </c>
       <c r="J32" t="n">
-        <v>74.80030455040011</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>70.46480586072633</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>43.42807408235635</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>65.38007183670243</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>88.63342487673017</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>36.22203728504044</v>
+        <v>32.56159800918574</v>
       </c>
       <c r="S32" t="n">
-        <v>165.9452104078107</v>
+        <v>164.6173333059695</v>
       </c>
       <c r="T32" t="n">
-        <v>218.3863943170558</v>
+        <v>218.1313078875085</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2683351220861</v>
+        <v>252.2636733483879</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -25010,22 +25010,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>126.9854363758741</v>
+        <v>126.9542580155802</v>
       </c>
       <c r="H33" t="n">
-        <v>94.5366171262896</v>
+        <v>94.23549980450369</v>
       </c>
       <c r="I33" t="n">
-        <v>65.16955647617495</v>
+        <v>50.93261970798304</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25034,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>30.88817237036449</v>
+        <v>28.95237908825671</v>
       </c>
       <c r="S33" t="n">
-        <v>142.8056045053299</v>
+        <v>142.22648013759</v>
       </c>
       <c r="T33" t="n">
-        <v>184.9611451887135</v>
+        <v>184.8354745171779</v>
       </c>
       <c r="U33" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2778078354777</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -25089,49 +25089,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.8484416772834</v>
+        <v>166.822302787362</v>
       </c>
       <c r="H34" t="n">
-        <v>154.3816182209092</v>
+        <v>154.1492197268807</v>
       </c>
       <c r="I34" t="n">
-        <v>131.269940117466</v>
+        <v>130.4838724096476</v>
       </c>
       <c r="J34" t="n">
-        <v>32.44152677383354</v>
+        <v>30.59350725638981</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>52.97980340177091</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>45.27133502328439</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.155510525861384</v>
+        <v>3.966734934351265</v>
       </c>
       <c r="R34" t="n">
-        <v>130.8455323770033</v>
+        <v>129.6702328356279</v>
       </c>
       <c r="S34" t="n">
-        <v>204.9135390503414</v>
+        <v>204.4580094868928</v>
       </c>
       <c r="T34" t="n">
-        <v>229.2145141050582</v>
+        <v>229.1028297572121</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2960690235111</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25168,49 +25168,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0910991671059</v>
+        <v>411.0328269958786</v>
       </c>
       <c r="H35" t="n">
-        <v>320.7690783136127</v>
+        <v>320.1722984400315</v>
       </c>
       <c r="I35" t="n">
-        <v>138.2481755487984</v>
+        <v>136.0016376675592</v>
       </c>
       <c r="J35" t="n">
-        <v>74.8003045504001</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>70.46480586072632</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>43.42807408235635</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>65.38007183670243</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>36.22203728504045</v>
+        <v>32.56159800918574</v>
       </c>
       <c r="S35" t="n">
-        <v>165.9452104078107</v>
+        <v>164.6173333059695</v>
       </c>
       <c r="T35" t="n">
-        <v>218.3863943170558</v>
+        <v>218.1313078875085</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2683351220861</v>
+        <v>252.2636733483879</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25247,22 +25247,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>126.9854363758741</v>
+        <v>126.9542580155802</v>
       </c>
       <c r="H36" t="n">
-        <v>94.5366171262896</v>
+        <v>94.23549980450369</v>
       </c>
       <c r="I36" t="n">
-        <v>65.16955647617495</v>
+        <v>50.93261970798304</v>
       </c>
       <c r="J36" t="n">
-        <v>59.9944890099195</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>13.61350529844597</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25271,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>21.82048350850063</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>90.06634312508154</v>
+        <v>28.95237908825671</v>
       </c>
       <c r="S36" t="n">
-        <v>142.8056045053299</v>
+        <v>142.22648013759</v>
       </c>
       <c r="T36" t="n">
-        <v>184.9611451887135</v>
+        <v>184.8354745171779</v>
       </c>
       <c r="U36" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2778078354777</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -25326,49 +25326,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.8484416772834</v>
+        <v>166.822302787362</v>
       </c>
       <c r="H37" t="n">
-        <v>154.3816182209092</v>
+        <v>154.1492197268807</v>
       </c>
       <c r="I37" t="n">
-        <v>131.269940117466</v>
+        <v>130.4838724096476</v>
       </c>
       <c r="J37" t="n">
-        <v>32.44152677383354</v>
+        <v>30.59350725638981</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>52.97980340177092</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.155510525861384</v>
+        <v>3.966734934351265</v>
       </c>
       <c r="R37" t="n">
-        <v>130.8455323770033</v>
+        <v>129.6702328356279</v>
       </c>
       <c r="S37" t="n">
-        <v>204.9135390503414</v>
+        <v>204.4580094868928</v>
       </c>
       <c r="T37" t="n">
-        <v>229.2145141050582</v>
+        <v>229.1028297572121</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2960690235111</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25405,49 +25405,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>411.0910991671059</v>
+        <v>411.0328269958786</v>
       </c>
       <c r="H38" t="n">
-        <v>320.7690783136127</v>
+        <v>320.1722984400315</v>
       </c>
       <c r="I38" t="n">
-        <v>138.2481755487984</v>
+        <v>136.0016376675592</v>
       </c>
       <c r="J38" t="n">
-        <v>74.8003045504001</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>70.46480586072632</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>43.42807408235635</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>65.38007183670243</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.63342487673017</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>121.6533831199176</v>
+        <v>32.56159800918574</v>
       </c>
       <c r="S38" t="n">
-        <v>165.9452104078107</v>
+        <v>164.6173333059695</v>
       </c>
       <c r="T38" t="n">
-        <v>218.3863943170558</v>
+        <v>218.1313078875085</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2683351220861</v>
+        <v>252.2636733483879</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25484,22 +25484,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>126.9854363758741</v>
+        <v>126.9542580155802</v>
       </c>
       <c r="H39" t="n">
-        <v>94.5366171262896</v>
+        <v>94.23549980450369</v>
       </c>
       <c r="I39" t="n">
-        <v>65.16955647617495</v>
+        <v>50.93261970798304</v>
       </c>
       <c r="J39" t="n">
-        <v>59.9944890099195</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>13.61350529844597</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25508,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>21.82048350850063</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>90.06634312508154</v>
+        <v>28.95237908825671</v>
       </c>
       <c r="S39" t="n">
-        <v>142.8056045053299</v>
+        <v>142.22648013759</v>
       </c>
       <c r="T39" t="n">
-        <v>184.9611451887135</v>
+        <v>184.8354745171779</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2778078354777</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -25563,49 +25563,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.8484416772834</v>
+        <v>166.822302787362</v>
       </c>
       <c r="H40" t="n">
-        <v>154.3816182209092</v>
+        <v>154.1492197268807</v>
       </c>
       <c r="I40" t="n">
-        <v>131.269940117466</v>
+        <v>130.4838724096476</v>
       </c>
       <c r="J40" t="n">
-        <v>32.44152677383354</v>
+        <v>30.59350725638981</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>52.97980340177092</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>45.27133502328439</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>65.68959993062856</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>91.10135641693829</v>
+        <v>3.966734934351265</v>
       </c>
       <c r="R40" t="n">
-        <v>130.8455323770033</v>
+        <v>129.6702328356279</v>
       </c>
       <c r="S40" t="n">
-        <v>204.9135390503414</v>
+        <v>204.4580094868928</v>
       </c>
       <c r="T40" t="n">
-        <v>229.2145141050582</v>
+        <v>229.1028297572121</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2960690235111</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25642,49 +25642,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.0910991671059</v>
+        <v>411.0328269958786</v>
       </c>
       <c r="H41" t="n">
-        <v>320.7690783136127</v>
+        <v>320.1722984400315</v>
       </c>
       <c r="I41" t="n">
-        <v>138.2481755487984</v>
+        <v>136.0016376675592</v>
       </c>
       <c r="J41" t="n">
-        <v>74.8003045504001</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.46480586072632</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>43.42807408235635</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>65.38007183670243</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.63342487673017</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>121.6533831199176</v>
+        <v>32.56159800918574</v>
       </c>
       <c r="S41" t="n">
-        <v>165.9452104078107</v>
+        <v>164.6173333059695</v>
       </c>
       <c r="T41" t="n">
-        <v>218.3863943170558</v>
+        <v>218.1313078875085</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2683351220861</v>
+        <v>252.2636733483879</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25721,22 +25721,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>126.9854363758741</v>
+        <v>126.9542580155802</v>
       </c>
       <c r="H42" t="n">
-        <v>94.5366171262896</v>
+        <v>94.23549980450369</v>
       </c>
       <c r="I42" t="n">
-        <v>65.16955647617495</v>
+        <v>50.93261970798304</v>
       </c>
       <c r="J42" t="n">
-        <v>59.9944890099195</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>13.61350529844597</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25745,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>21.82048350850063</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>90.06634312508154</v>
+        <v>28.95237908825671</v>
       </c>
       <c r="S42" t="n">
-        <v>142.8056045053299</v>
+        <v>142.22648013759</v>
       </c>
       <c r="T42" t="n">
-        <v>184.9611451887135</v>
+        <v>184.8354745171779</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2778078354777</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -25800,49 +25800,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.8484416772834</v>
+        <v>166.822302787362</v>
       </c>
       <c r="H43" t="n">
-        <v>154.3816182209092</v>
+        <v>154.1492197268807</v>
       </c>
       <c r="I43" t="n">
-        <v>131.269940117466</v>
+        <v>130.4838724096476</v>
       </c>
       <c r="J43" t="n">
-        <v>32.44152677383354</v>
+        <v>30.59350725638981</v>
       </c>
       <c r="K43" t="n">
-        <v>60.42909946350712</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>52.97980340177092</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>45.27133502328439</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>65.68959993062856</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.155510525861384</v>
+        <v>3.966734934351265</v>
       </c>
       <c r="R43" t="n">
-        <v>130.8455323770033</v>
+        <v>129.6702328356279</v>
       </c>
       <c r="S43" t="n">
-        <v>204.9135390503414</v>
+        <v>204.4580094868928</v>
       </c>
       <c r="T43" t="n">
-        <v>229.2145141050582</v>
+        <v>229.1028297572121</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2960690235111</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25879,49 +25879,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>410.973916419786</v>
+        <v>411.0328269958786</v>
       </c>
       <c r="H44" t="n">
-        <v>319.5689805026228</v>
+        <v>320.1722984400315</v>
       </c>
       <c r="I44" t="n">
-        <v>133.7304876827481</v>
+        <v>136.0016376675592</v>
       </c>
       <c r="J44" t="n">
-        <v>64.8545653500581</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>55.55872096633311</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>38.63996931854624</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>17.00307975621641</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>13.49162220344888</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>23.68409946486128</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>48.52904629366725</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>75.97900647208878</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>114.2924023685842</v>
+        <v>32.56159800918574</v>
       </c>
       <c r="S44" t="n">
-        <v>163.2749085532586</v>
+        <v>164.6173333059695</v>
       </c>
       <c r="T44" t="n">
-        <v>217.873426840663</v>
+        <v>218.1313078875085</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2589605023005</v>
+        <v>252.2636733483879</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25958,19 +25958,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>126.9227380785699</v>
+        <v>126.9542580155802</v>
       </c>
       <c r="H45" t="n">
-        <v>93.93108357074615</v>
+        <v>94.23549980450369</v>
       </c>
       <c r="I45" t="n">
-        <v>49.84739380653136</v>
+        <v>50.93261970798304</v>
       </c>
       <c r="J45" t="n">
-        <v>54.07087487733038</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>28.27352018597891</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>9.847858648713924</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>47.55207017118913</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>26.9953780868618</v>
+        <v>28.95237908825671</v>
       </c>
       <c r="S45" t="n">
-        <v>141.6410111321571</v>
+        <v>142.22648013759</v>
       </c>
       <c r="T45" t="n">
-        <v>184.7084270517723</v>
+        <v>184.8354745171779</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2757341554112</v>
+        <v>216.2778078354777</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26037,49 +26037,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7958775309959</v>
+        <v>166.822302787362</v>
       </c>
       <c r="H46" t="n">
-        <v>153.9142751748253</v>
+        <v>154.1492197268807</v>
       </c>
       <c r="I46" t="n">
-        <v>129.6891928818367</v>
+        <v>130.4838724096476</v>
       </c>
       <c r="J46" t="n">
-        <v>28.72524163130364</v>
+        <v>30.59350725638981</v>
       </c>
       <c r="K46" t="n">
-        <v>54.32210137664431</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>44.96968768784731</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>44.74013454325951</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>37.22758707366296</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>51.05679782469147</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>59.33220536508687</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.753980058091948</v>
+        <v>3.966734934351265</v>
       </c>
       <c r="R46" t="n">
-        <v>128.4820572175649</v>
+        <v>129.6702328356279</v>
       </c>
       <c r="S46" t="n">
-        <v>203.9974893373119</v>
+        <v>204.4580094868928</v>
       </c>
       <c r="T46" t="n">
-        <v>228.9899218436477</v>
+        <v>229.1028297572121</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2946276458911</v>
+        <v>284.2960690235111</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>87044.77335193852</v>
+        <v>317607.4307414179</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>238809.415386171</v>
+        <v>317607.4307414179</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>297445.9225715514</v>
+        <v>316991.8356833437</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>276656.278609551</v>
+        <v>316991.8356833437</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>207837.6394785045</v>
+        <v>317078.6201769284</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>248490.4135369628</v>
+        <v>317078.6201769284</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>231134.6379471261</v>
+        <v>317078.6201769284</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>227864.9389903418</v>
+        <v>317078.6201769284</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>234843.8252357178</v>
+        <v>317078.6201769284</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>232958.880381256</v>
+        <v>317078.6201769284</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>236745.2213066958</v>
+        <v>317078.6201769284</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>204269.9139510792</v>
+        <v>317078.6201769284</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>205299.6173010372</v>
+        <v>317078.6201769284</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>235663.9001241768</v>
+        <v>317078.6201769284</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>36297.99208473348</v>
       </c>
       <c r="C2" t="n">
-        <v>9947.974097364402</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="D2" t="n">
-        <v>27292.5046155624</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="E2" t="n">
-        <v>36941.58529661811</v>
+        <v>39175.4039379658</v>
       </c>
       <c r="F2" t="n">
-        <v>34565.6259866752</v>
+        <v>39175.4039379658</v>
       </c>
       <c r="G2" t="n">
-        <v>26700.63865741275</v>
+        <v>39372.23850471073</v>
       </c>
       <c r="H2" t="n">
-        <v>31346.66997837941</v>
+        <v>39372.23850471075</v>
       </c>
       <c r="I2" t="n">
-        <v>29363.15276811236</v>
+        <v>39372.23850471073</v>
       </c>
       <c r="J2" t="n">
-        <v>28989.47288733701</v>
+        <v>39372.23850471073</v>
       </c>
       <c r="K2" t="n">
-        <v>29787.05988680855</v>
+        <v>39372.23850471073</v>
       </c>
       <c r="L2" t="n">
-        <v>29571.63761772721</v>
+        <v>39372.23850471074</v>
       </c>
       <c r="M2" t="n">
-        <v>30004.36229492032</v>
+        <v>39372.23850471073</v>
       </c>
       <c r="N2" t="n">
-        <v>26292.89859713558</v>
+        <v>39372.23850471073</v>
       </c>
       <c r="O2" t="n">
-        <v>26410.57897998792</v>
+        <v>39372.23850471073</v>
       </c>
       <c r="P2" t="n">
-        <v>30249.3951991587</v>
+        <v>39372.23850471072</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11269.83157825447</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19401.013527259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>36297.99208473349</v>
       </c>
       <c r="C4" t="n">
-        <v>9947.974097364402</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="D4" t="n">
-        <v>27292.50461556241</v>
+        <v>36297.99208473349</v>
       </c>
       <c r="E4" t="n">
-        <v>11148.63652276115</v>
+        <v>13382.45516410885</v>
       </c>
       <c r="F4" t="n">
-        <v>8772.677212818246</v>
+        <v>13382.45516410885</v>
       </c>
       <c r="G4" t="n">
-        <v>907.6898835557969</v>
+        <v>11943.77176542031</v>
       </c>
       <c r="H4" t="n">
-        <v>5553.721204522467</v>
+        <v>11943.77176542031</v>
       </c>
       <c r="I4" t="n">
-        <v>3570.203994255412</v>
+        <v>11943.77176542031</v>
       </c>
       <c r="J4" t="n">
-        <v>3196.524113480059</v>
+        <v>11943.77176542031</v>
       </c>
       <c r="K4" t="n">
-        <v>3994.111112951603</v>
+        <v>11943.77176542031</v>
       </c>
       <c r="L4" t="n">
-        <v>3778.688843870261</v>
+        <v>11943.77176542031</v>
       </c>
       <c r="M4" t="n">
-        <v>4211.413521063369</v>
+        <v>11943.77176542031</v>
       </c>
       <c r="N4" t="n">
-        <v>499.9498232786277</v>
+        <v>11943.77176542031</v>
       </c>
       <c r="O4" t="n">
-        <v>617.6302061309627</v>
+        <v>11943.77176542031</v>
       </c>
       <c r="P4" t="n">
-        <v>1231.087330696964</v>
+        <v>11943.77176542031</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>4619.356102465596</v>
       </c>
       <c r="G5" t="n">
-        <v>4619.356102465596</v>
+        <v>4935.351518988249</v>
       </c>
       <c r="H5" t="n">
-        <v>4619.356102465596</v>
+        <v>4935.351518988249</v>
       </c>
       <c r="I5" t="n">
-        <v>4619.356102465596</v>
+        <v>4935.351518988249</v>
       </c>
       <c r="J5" t="n">
-        <v>4619.356102465596</v>
+        <v>4935.351518988249</v>
       </c>
       <c r="K5" t="n">
-        <v>4619.356102465596</v>
+        <v>4935.351518988249</v>
       </c>
       <c r="L5" t="n">
-        <v>4619.356102465596</v>
+        <v>4935.351518988249</v>
       </c>
       <c r="M5" t="n">
-        <v>4619.356102465596</v>
+        <v>4935.351518988249</v>
       </c>
       <c r="N5" t="n">
-        <v>4619.356102465596</v>
+        <v>4935.351518988249</v>
       </c>
       <c r="O5" t="n">
-        <v>4619.356102465596</v>
+        <v>4935.351518988249</v>
       </c>
       <c r="P5" t="n">
-        <v>5254.808845494562</v>
+        <v>4935.351518988249</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-48280.95250176286</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48280.95250176286</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48280.95250176286</v>
       </c>
       <c r="E6" t="n">
-        <v>-149065.1481904971</v>
+        <v>-163358.8242106059</v>
       </c>
       <c r="F6" t="n">
-        <v>21173.59267139136</v>
+        <v>6879.916651282534</v>
       </c>
       <c r="G6" t="n">
-        <v>21173.59267139135</v>
+        <v>-3045.788057218009</v>
       </c>
       <c r="H6" t="n">
-        <v>21173.59267139135</v>
+        <v>8224.043521036479</v>
       </c>
       <c r="I6" t="n">
-        <v>21173.59267139135</v>
+        <v>8224.043521036465</v>
       </c>
       <c r="J6" t="n">
-        <v>21173.59267139136</v>
+        <v>8224.043521036465</v>
       </c>
       <c r="K6" t="n">
-        <v>21173.59267139135</v>
+        <v>8224.043521036465</v>
       </c>
       <c r="L6" t="n">
-        <v>21173.59267139135</v>
+        <v>8224.043521036472</v>
       </c>
       <c r="M6" t="n">
-        <v>21173.59267139135</v>
+        <v>8224.043521036465</v>
       </c>
       <c r="N6" t="n">
-        <v>21173.59267139135</v>
+        <v>8224.043521036465</v>
       </c>
       <c r="O6" t="n">
-        <v>21173.59267139136</v>
+        <v>8224.043521036465</v>
       </c>
       <c r="P6" t="n">
-        <v>4362.485495708173</v>
+        <v>8224.043521036458</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>211.8970689204402</v>
       </c>
       <c r="G3" t="n">
-        <v>211.8970689204402</v>
+        <v>226.3922715132224</v>
       </c>
       <c r="H3" t="n">
-        <v>211.8970689204402</v>
+        <v>226.3922715132224</v>
       </c>
       <c r="I3" t="n">
-        <v>211.8970689204402</v>
+        <v>226.3922715132224</v>
       </c>
       <c r="J3" t="n">
-        <v>211.8970689204402</v>
+        <v>226.3922715132224</v>
       </c>
       <c r="K3" t="n">
-        <v>211.8970689204402</v>
+        <v>226.3922715132224</v>
       </c>
       <c r="L3" t="n">
-        <v>211.8970689204402</v>
+        <v>226.3922715132224</v>
       </c>
       <c r="M3" t="n">
-        <v>211.8970689204402</v>
+        <v>226.3922715132224</v>
       </c>
       <c r="N3" t="n">
-        <v>211.8970689204402</v>
+        <v>226.3922715132224</v>
       </c>
       <c r="O3" t="n">
-        <v>211.8970689204402</v>
+        <v>226.3922715132224</v>
       </c>
       <c r="P3" t="n">
-        <v>241.0462773162643</v>
+        <v>226.3922715132224</v>
       </c>
     </row>
     <row r="4">
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>14.49520259278222</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29.14920839582408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8518475132480001</v>
+        <v>0.9101196844752654</v>
       </c>
       <c r="H17" t="n">
-        <v>8.723983345051083</v>
+        <v>9.320763218632313</v>
       </c>
       <c r="I17" t="n">
-        <v>32.84085125449356</v>
+        <v>35.0873891357327</v>
       </c>
       <c r="J17" t="n">
-        <v>72.29949287753251</v>
+        <v>77.24527057023262</v>
       </c>
       <c r="K17" t="n">
-        <v>108.3581981133204</v>
+        <v>115.7706368140706</v>
       </c>
       <c r="L17" t="n">
-        <v>134.4279264468839</v>
+        <v>143.6237121078306</v>
       </c>
       <c r="M17" t="n">
-        <v>149.576969660608</v>
+        <v>159.8090530466175</v>
       </c>
       <c r="N17" t="n">
-        <v>151.9972814076239</v>
+        <v>162.3949306001329</v>
       </c>
       <c r="O17" t="n">
-        <v>143.5267226977641</v>
+        <v>153.344927987632</v>
       </c>
       <c r="P17" t="n">
-        <v>122.4967372144541</v>
+        <v>130.8763482771488</v>
       </c>
       <c r="Q17" t="n">
-        <v>91.98994814626005</v>
+        <v>98.28268707687837</v>
       </c>
       <c r="R17" t="n">
-        <v>53.50986635406474</v>
+        <v>57.17030562991944</v>
       </c>
       <c r="S17" t="n">
-        <v>19.41147520813882</v>
+        <v>20.73935230998013</v>
       </c>
       <c r="T17" t="n">
-        <v>3.728962489243123</v>
+        <v>3.984048918790476</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06814780105984</v>
+        <v>0.07280957475802122</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.4869569613680633</v>
       </c>
       <c r="H18" t="n">
-        <v>4.401861752479334</v>
+        <v>4.702979074265244</v>
       </c>
       <c r="I18" t="n">
-        <v>15.69237727382506</v>
+        <v>16.76584274885657</v>
       </c>
       <c r="J18" t="n">
-        <v>43.0610826567472</v>
+        <v>46.00675396855024</v>
       </c>
       <c r="K18" t="n">
-        <v>73.59824892871555</v>
+        <v>78.63287038021048</v>
       </c>
       <c r="L18" t="n">
-        <v>98.96192827270183</v>
+        <v>105.7315981251139</v>
       </c>
       <c r="M18" t="n">
         <v>115.4839025616399</v>
@@ -32329,25 +32329,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O18" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P18" t="n">
-        <v>87.03372251564271</v>
+        <v>92.9874218598366</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.1797386213254</v>
+        <v>62.15962896340402</v>
       </c>
       <c r="R18" t="n">
-        <v>28.29825384563918</v>
+        <v>30.23404712774696</v>
       </c>
       <c r="S18" t="n">
-        <v>8.465887612057205</v>
+        <v>9.045011979797135</v>
       </c>
       <c r="T18" t="n">
-        <v>1.837107606961174</v>
+        <v>1.962778278496711</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03203664219526734</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4082483584664666</v>
       </c>
       <c r="H19" t="n">
-        <v>3.397300547609683</v>
+        <v>3.629699041638224</v>
       </c>
       <c r="I19" t="n">
-        <v>11.49107383588223</v>
+        <v>12.27714154370065</v>
       </c>
       <c r="J19" t="n">
-        <v>27.01513942613546</v>
+        <v>28.86315894357919</v>
       </c>
       <c r="K19" t="n">
-        <v>44.39417280005287</v>
+        <v>47.43103655637675</v>
       </c>
       <c r="L19" t="n">
-        <v>56.80925680532589</v>
+        <v>60.6953968578236</v>
       </c>
       <c r="M19" t="n">
-        <v>59.89739605565819</v>
+        <v>63.9947858639753</v>
       </c>
       <c r="N19" t="n">
-        <v>58.47316985471758</v>
+        <v>62.47313289150943</v>
       </c>
       <c r="O19" t="n">
-        <v>54.00943651762304</v>
+        <v>57.70404979487842</v>
       </c>
       <c r="P19" t="n">
-        <v>46.21440335930385</v>
+        <v>49.37578328216245</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.99645740698647</v>
+        <v>34.18523299849659</v>
       </c>
       <c r="R19" t="n">
-        <v>17.18103119476224</v>
+        <v>18.35633073613767</v>
       </c>
       <c r="S19" t="n">
-        <v>6.659125920007929</v>
+        <v>7.114655483456511</v>
       </c>
       <c r="T19" t="n">
-        <v>1.632649547419785</v>
+        <v>1.744333895265811</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02226809227998911</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8518475132480001</v>
+        <v>0.9101196844752654</v>
       </c>
       <c r="H20" t="n">
-        <v>8.723983345051083</v>
+        <v>9.320763218632313</v>
       </c>
       <c r="I20" t="n">
-        <v>32.84085125449356</v>
+        <v>35.0873891357327</v>
       </c>
       <c r="J20" t="n">
-        <v>72.29949287753251</v>
+        <v>77.24527057023262</v>
       </c>
       <c r="K20" t="n">
-        <v>108.3581981133204</v>
+        <v>115.7706368140706</v>
       </c>
       <c r="L20" t="n">
-        <v>134.4279264468839</v>
+        <v>143.6237121078306</v>
       </c>
       <c r="M20" t="n">
-        <v>149.576969660608</v>
+        <v>159.8090530466175</v>
       </c>
       <c r="N20" t="n">
-        <v>151.9972814076239</v>
+        <v>162.3949306001329</v>
       </c>
       <c r="O20" t="n">
-        <v>143.5267226977641</v>
+        <v>153.344927987632</v>
       </c>
       <c r="P20" t="n">
-        <v>122.4967372144541</v>
+        <v>130.8763482771488</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.98994814626005</v>
+        <v>98.28268707687837</v>
       </c>
       <c r="R20" t="n">
-        <v>53.50986635406474</v>
+        <v>57.17030562991944</v>
       </c>
       <c r="S20" t="n">
-        <v>19.41147520813882</v>
+        <v>20.73935230998013</v>
       </c>
       <c r="T20" t="n">
-        <v>3.728962489243123</v>
+        <v>3.984048918790476</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06814780105984</v>
+        <v>0.07280957475802122</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.4869569613680633</v>
       </c>
       <c r="H21" t="n">
-        <v>4.401861752479334</v>
+        <v>4.702979074265244</v>
       </c>
       <c r="I21" t="n">
-        <v>15.69237727382506</v>
+        <v>16.76584274885657</v>
       </c>
       <c r="J21" t="n">
-        <v>43.0610826567472</v>
+        <v>46.00675396855024</v>
       </c>
       <c r="K21" t="n">
-        <v>73.59824892871555</v>
+        <v>78.63287038021048</v>
       </c>
       <c r="L21" t="n">
-        <v>98.96192827270183</v>
+        <v>105.7315981251139</v>
       </c>
       <c r="M21" t="n">
         <v>115.4839025616399</v>
@@ -32566,25 +32566,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>87.03372251564271</v>
+        <v>92.9874218598366</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.1797386213254</v>
+        <v>62.15962896340402</v>
       </c>
       <c r="R21" t="n">
-        <v>28.29825384563918</v>
+        <v>30.23404712774696</v>
       </c>
       <c r="S21" t="n">
-        <v>8.465887612057205</v>
+        <v>9.045011979797135</v>
       </c>
       <c r="T21" t="n">
-        <v>1.837107606961174</v>
+        <v>1.962778278496711</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03203664219526734</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4082483584664666</v>
       </c>
       <c r="H22" t="n">
-        <v>3.397300547609683</v>
+        <v>3.629699041638224</v>
       </c>
       <c r="I22" t="n">
-        <v>11.49107383588223</v>
+        <v>12.27714154370065</v>
       </c>
       <c r="J22" t="n">
-        <v>27.01513942613546</v>
+        <v>28.86315894357919</v>
       </c>
       <c r="K22" t="n">
-        <v>44.39417280005287</v>
+        <v>47.43103655637675</v>
       </c>
       <c r="L22" t="n">
-        <v>56.80925680532589</v>
+        <v>60.6953968578236</v>
       </c>
       <c r="M22" t="n">
-        <v>59.89739605565819</v>
+        <v>63.9947858639753</v>
       </c>
       <c r="N22" t="n">
-        <v>58.47316985471758</v>
+        <v>62.47313289150943</v>
       </c>
       <c r="O22" t="n">
-        <v>54.00943651762304</v>
+        <v>57.70404979487842</v>
       </c>
       <c r="P22" t="n">
-        <v>46.21440335930385</v>
+        <v>49.37578328216245</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.99645740698647</v>
+        <v>34.18523299849659</v>
       </c>
       <c r="R22" t="n">
-        <v>17.18103119476224</v>
+        <v>18.35633073613767</v>
       </c>
       <c r="S22" t="n">
-        <v>6.659125920007929</v>
+        <v>7.114655483456511</v>
       </c>
       <c r="T22" t="n">
-        <v>1.632649547419785</v>
+        <v>1.744333895265811</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02226809227998911</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8518475132480001</v>
+        <v>0.9101196844752654</v>
       </c>
       <c r="H23" t="n">
-        <v>8.723983345051083</v>
+        <v>9.320763218632313</v>
       </c>
       <c r="I23" t="n">
-        <v>32.84085125449356</v>
+        <v>35.0873891357327</v>
       </c>
       <c r="J23" t="n">
-        <v>72.29949287753251</v>
+        <v>77.24527057023262</v>
       </c>
       <c r="K23" t="n">
-        <v>108.3581981133204</v>
+        <v>115.7706368140706</v>
       </c>
       <c r="L23" t="n">
-        <v>134.4279264468839</v>
+        <v>143.6237121078306</v>
       </c>
       <c r="M23" t="n">
-        <v>149.576969660608</v>
+        <v>159.8090530466175</v>
       </c>
       <c r="N23" t="n">
-        <v>151.9972814076239</v>
+        <v>162.3949306001329</v>
       </c>
       <c r="O23" t="n">
-        <v>143.5267226977641</v>
+        <v>153.344927987632</v>
       </c>
       <c r="P23" t="n">
-        <v>122.4967372144541</v>
+        <v>130.8763482771488</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.98994814626005</v>
+        <v>98.28268707687837</v>
       </c>
       <c r="R23" t="n">
-        <v>53.50986635406474</v>
+        <v>57.17030562991944</v>
       </c>
       <c r="S23" t="n">
-        <v>19.41147520813882</v>
+        <v>20.73935230998013</v>
       </c>
       <c r="T23" t="n">
-        <v>3.728962489243123</v>
+        <v>3.984048918790476</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06814780105984</v>
+        <v>0.07280957475802122</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.4869569613680633</v>
       </c>
       <c r="H24" t="n">
-        <v>4.401861752479334</v>
+        <v>4.702979074265244</v>
       </c>
       <c r="I24" t="n">
-        <v>15.69237727382506</v>
+        <v>16.76584274885657</v>
       </c>
       <c r="J24" t="n">
-        <v>43.0610826567472</v>
+        <v>46.00675396855024</v>
       </c>
       <c r="K24" t="n">
-        <v>73.59824892871555</v>
+        <v>78.63287038021048</v>
       </c>
       <c r="L24" t="n">
-        <v>98.96192827270183</v>
+        <v>105.7315981251139</v>
       </c>
       <c r="M24" t="n">
         <v>115.4839025616399</v>
@@ -32803,25 +32803,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O24" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
-        <v>87.03372251564271</v>
+        <v>92.9874218598366</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.1797386213254</v>
+        <v>62.15962896340402</v>
       </c>
       <c r="R24" t="n">
-        <v>28.29825384563918</v>
+        <v>30.23404712774696</v>
       </c>
       <c r="S24" t="n">
-        <v>8.465887612057205</v>
+        <v>9.045011979797135</v>
       </c>
       <c r="T24" t="n">
-        <v>1.837107606961174</v>
+        <v>1.962778278496711</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03203664219526734</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4082483584664666</v>
       </c>
       <c r="H25" t="n">
-        <v>3.397300547609683</v>
+        <v>3.629699041638224</v>
       </c>
       <c r="I25" t="n">
-        <v>11.49107383588223</v>
+        <v>12.27714154370065</v>
       </c>
       <c r="J25" t="n">
-        <v>27.01513942613546</v>
+        <v>28.86315894357919</v>
       </c>
       <c r="K25" t="n">
-        <v>44.39417280005287</v>
+        <v>47.43103655637675</v>
       </c>
       <c r="L25" t="n">
-        <v>56.80925680532589</v>
+        <v>60.6953968578236</v>
       </c>
       <c r="M25" t="n">
-        <v>59.89739605565819</v>
+        <v>63.9947858639753</v>
       </c>
       <c r="N25" t="n">
-        <v>58.47316985471758</v>
+        <v>62.47313289150943</v>
       </c>
       <c r="O25" t="n">
-        <v>54.00943651762304</v>
+        <v>57.70404979487842</v>
       </c>
       <c r="P25" t="n">
-        <v>46.21440335930385</v>
+        <v>49.37578328216245</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.99645740698647</v>
+        <v>34.18523299849659</v>
       </c>
       <c r="R25" t="n">
-        <v>17.18103119476224</v>
+        <v>18.35633073613767</v>
       </c>
       <c r="S25" t="n">
-        <v>6.659125920007929</v>
+        <v>7.114655483456511</v>
       </c>
       <c r="T25" t="n">
-        <v>1.632649547419785</v>
+        <v>1.744333895265811</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02226809227998911</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8518475132480001</v>
+        <v>0.9101196844752654</v>
       </c>
       <c r="H26" t="n">
-        <v>8.723983345051083</v>
+        <v>9.320763218632313</v>
       </c>
       <c r="I26" t="n">
-        <v>32.84085125449356</v>
+        <v>35.0873891357327</v>
       </c>
       <c r="J26" t="n">
-        <v>72.29949287753251</v>
+        <v>77.24527057023262</v>
       </c>
       <c r="K26" t="n">
-        <v>108.3581981133204</v>
+        <v>115.7706368140706</v>
       </c>
       <c r="L26" t="n">
-        <v>134.4279264468839</v>
+        <v>143.6237121078306</v>
       </c>
       <c r="M26" t="n">
-        <v>149.576969660608</v>
+        <v>159.8090530466175</v>
       </c>
       <c r="N26" t="n">
-        <v>151.9972814076239</v>
+        <v>162.3949306001329</v>
       </c>
       <c r="O26" t="n">
-        <v>143.5267226977641</v>
+        <v>153.344927987632</v>
       </c>
       <c r="P26" t="n">
-        <v>122.4967372144541</v>
+        <v>130.8763482771488</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.98994814626005</v>
+        <v>98.28268707687837</v>
       </c>
       <c r="R26" t="n">
-        <v>53.50986635406474</v>
+        <v>57.17030562991944</v>
       </c>
       <c r="S26" t="n">
-        <v>19.41147520813882</v>
+        <v>20.73935230998013</v>
       </c>
       <c r="T26" t="n">
-        <v>3.728962489243123</v>
+        <v>3.984048918790476</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06814780105984</v>
+        <v>0.07280957475802122</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.4869569613680633</v>
       </c>
       <c r="H27" t="n">
-        <v>4.401861752479334</v>
+        <v>4.702979074265244</v>
       </c>
       <c r="I27" t="n">
-        <v>15.69237727382506</v>
+        <v>16.76584274885657</v>
       </c>
       <c r="J27" t="n">
-        <v>43.0610826567472</v>
+        <v>46.00675396855024</v>
       </c>
       <c r="K27" t="n">
-        <v>73.59824892871555</v>
+        <v>78.63287038021048</v>
       </c>
       <c r="L27" t="n">
-        <v>98.96192827270183</v>
+        <v>105.7315981251139</v>
       </c>
       <c r="M27" t="n">
         <v>115.4839025616399</v>
@@ -33040,25 +33040,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O27" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P27" t="n">
-        <v>87.03372251564271</v>
+        <v>92.9874218598366</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.1797386213254</v>
+        <v>62.15962896340402</v>
       </c>
       <c r="R27" t="n">
-        <v>28.29825384563918</v>
+        <v>30.23404712774696</v>
       </c>
       <c r="S27" t="n">
-        <v>8.465887612057205</v>
+        <v>9.045011979797135</v>
       </c>
       <c r="T27" t="n">
-        <v>1.837107606961174</v>
+        <v>1.962778278496711</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03203664219526734</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4082483584664666</v>
       </c>
       <c r="H28" t="n">
-        <v>3.397300547609683</v>
+        <v>3.629699041638224</v>
       </c>
       <c r="I28" t="n">
-        <v>11.49107383588223</v>
+        <v>12.27714154370065</v>
       </c>
       <c r="J28" t="n">
-        <v>27.01513942613546</v>
+        <v>28.86315894357919</v>
       </c>
       <c r="K28" t="n">
-        <v>44.39417280005287</v>
+        <v>47.43103655637675</v>
       </c>
       <c r="L28" t="n">
-        <v>56.80925680532589</v>
+        <v>60.6953968578236</v>
       </c>
       <c r="M28" t="n">
-        <v>59.89739605565819</v>
+        <v>63.9947858639753</v>
       </c>
       <c r="N28" t="n">
-        <v>58.47316985471758</v>
+        <v>62.47313289150943</v>
       </c>
       <c r="O28" t="n">
-        <v>54.00943651762304</v>
+        <v>57.70404979487842</v>
       </c>
       <c r="P28" t="n">
-        <v>46.21440335930385</v>
+        <v>49.37578328216245</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.99645740698647</v>
+        <v>34.18523299849659</v>
       </c>
       <c r="R28" t="n">
-        <v>17.18103119476224</v>
+        <v>18.35633073613767</v>
       </c>
       <c r="S28" t="n">
-        <v>6.659125920007929</v>
+        <v>7.114655483456511</v>
       </c>
       <c r="T28" t="n">
-        <v>1.632649547419785</v>
+        <v>1.744333895265811</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02226809227998911</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8518475132480001</v>
+        <v>0.9101196844752654</v>
       </c>
       <c r="H29" t="n">
-        <v>8.723983345051083</v>
+        <v>9.320763218632313</v>
       </c>
       <c r="I29" t="n">
-        <v>32.84085125449356</v>
+        <v>35.0873891357327</v>
       </c>
       <c r="J29" t="n">
-        <v>72.29949287753251</v>
+        <v>77.24527057023262</v>
       </c>
       <c r="K29" t="n">
-        <v>108.3581981133204</v>
+        <v>115.7706368140706</v>
       </c>
       <c r="L29" t="n">
-        <v>134.4279264468839</v>
+        <v>143.6237121078306</v>
       </c>
       <c r="M29" t="n">
-        <v>149.576969660608</v>
+        <v>159.8090530466175</v>
       </c>
       <c r="N29" t="n">
-        <v>151.9972814076239</v>
+        <v>162.3949306001329</v>
       </c>
       <c r="O29" t="n">
-        <v>143.5267226977641</v>
+        <v>153.344927987632</v>
       </c>
       <c r="P29" t="n">
-        <v>122.4967372144541</v>
+        <v>130.8763482771488</v>
       </c>
       <c r="Q29" t="n">
-        <v>91.98994814626005</v>
+        <v>98.28268707687837</v>
       </c>
       <c r="R29" t="n">
-        <v>53.50986635406474</v>
+        <v>57.17030562991944</v>
       </c>
       <c r="S29" t="n">
-        <v>19.41147520813882</v>
+        <v>20.73935230998013</v>
       </c>
       <c r="T29" t="n">
-        <v>3.728962489243123</v>
+        <v>3.984048918790476</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06814780105984</v>
+        <v>0.07280957475802122</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.4869569613680633</v>
       </c>
       <c r="H30" t="n">
-        <v>4.401861752479334</v>
+        <v>4.702979074265244</v>
       </c>
       <c r="I30" t="n">
-        <v>15.69237727382506</v>
+        <v>16.76584274885657</v>
       </c>
       <c r="J30" t="n">
-        <v>43.0610826567472</v>
+        <v>46.00675396855024</v>
       </c>
       <c r="K30" t="n">
-        <v>73.59824892871555</v>
+        <v>78.63287038021048</v>
       </c>
       <c r="L30" t="n">
-        <v>98.96192827270183</v>
+        <v>105.7315981251139</v>
       </c>
       <c r="M30" t="n">
         <v>115.4839025616399</v>
@@ -33277,25 +33277,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O30" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>87.03372251564271</v>
+        <v>92.9874218598366</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.1797386213254</v>
+        <v>62.15962896340402</v>
       </c>
       <c r="R30" t="n">
-        <v>28.29825384563918</v>
+        <v>30.23404712774696</v>
       </c>
       <c r="S30" t="n">
-        <v>8.465887612057205</v>
+        <v>9.045011979797135</v>
       </c>
       <c r="T30" t="n">
-        <v>1.837107606961174</v>
+        <v>1.962778278496711</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03203664219526734</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4082483584664666</v>
       </c>
       <c r="H31" t="n">
-        <v>3.397300547609683</v>
+        <v>3.629699041638224</v>
       </c>
       <c r="I31" t="n">
-        <v>11.49107383588223</v>
+        <v>12.27714154370065</v>
       </c>
       <c r="J31" t="n">
-        <v>27.01513942613546</v>
+        <v>28.86315894357919</v>
       </c>
       <c r="K31" t="n">
-        <v>44.39417280005287</v>
+        <v>47.43103655637675</v>
       </c>
       <c r="L31" t="n">
-        <v>56.80925680532589</v>
+        <v>60.6953968578236</v>
       </c>
       <c r="M31" t="n">
-        <v>59.89739605565819</v>
+        <v>63.9947858639753</v>
       </c>
       <c r="N31" t="n">
-        <v>58.47316985471758</v>
+        <v>62.47313289150943</v>
       </c>
       <c r="O31" t="n">
-        <v>54.00943651762304</v>
+        <v>57.70404979487842</v>
       </c>
       <c r="P31" t="n">
-        <v>46.21440335930385</v>
+        <v>49.37578328216245</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.99645740698647</v>
+        <v>34.18523299849659</v>
       </c>
       <c r="R31" t="n">
-        <v>17.18103119476224</v>
+        <v>18.35633073613767</v>
       </c>
       <c r="S31" t="n">
-        <v>6.659125920007929</v>
+        <v>7.114655483456511</v>
       </c>
       <c r="T31" t="n">
-        <v>1.632649547419785</v>
+        <v>1.744333895265811</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02226809227998911</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8518475132480001</v>
+        <v>0.9101196844752654</v>
       </c>
       <c r="H32" t="n">
-        <v>8.723983345051083</v>
+        <v>9.320763218632313</v>
       </c>
       <c r="I32" t="n">
-        <v>32.84085125449356</v>
+        <v>35.0873891357327</v>
       </c>
       <c r="J32" t="n">
-        <v>72.29949287753251</v>
+        <v>77.24527057023262</v>
       </c>
       <c r="K32" t="n">
-        <v>108.3581981133204</v>
+        <v>115.7706368140706</v>
       </c>
       <c r="L32" t="n">
-        <v>134.4279264468839</v>
+        <v>143.6237121078306</v>
       </c>
       <c r="M32" t="n">
-        <v>149.576969660608</v>
+        <v>159.8090530466175</v>
       </c>
       <c r="N32" t="n">
-        <v>151.9972814076239</v>
+        <v>162.3949306001329</v>
       </c>
       <c r="O32" t="n">
-        <v>143.5267226977641</v>
+        <v>153.344927987632</v>
       </c>
       <c r="P32" t="n">
-        <v>122.4967372144541</v>
+        <v>130.8763482771488</v>
       </c>
       <c r="Q32" t="n">
-        <v>91.98994814626005</v>
+        <v>98.28268707687837</v>
       </c>
       <c r="R32" t="n">
-        <v>53.50986635406474</v>
+        <v>57.17030562991944</v>
       </c>
       <c r="S32" t="n">
-        <v>19.41147520813882</v>
+        <v>20.73935230998013</v>
       </c>
       <c r="T32" t="n">
-        <v>3.728962489243123</v>
+        <v>3.984048918790476</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06814780105984</v>
+        <v>0.07280957475802122</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.4869569613680633</v>
       </c>
       <c r="H33" t="n">
-        <v>4.401861752479334</v>
+        <v>4.702979074265244</v>
       </c>
       <c r="I33" t="n">
-        <v>15.69237727382506</v>
+        <v>16.76584274885657</v>
       </c>
       <c r="J33" t="n">
-        <v>43.0610826567472</v>
+        <v>46.00675396855024</v>
       </c>
       <c r="K33" t="n">
-        <v>73.59824892871555</v>
+        <v>78.63287038021048</v>
       </c>
       <c r="L33" t="n">
-        <v>98.96192827270183</v>
+        <v>105.7315981251139</v>
       </c>
       <c r="M33" t="n">
         <v>115.4839025616399</v>
@@ -33514,25 +33514,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O33" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P33" t="n">
-        <v>87.03372251564271</v>
+        <v>92.9874218598366</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.1797386213254</v>
+        <v>62.15962896340402</v>
       </c>
       <c r="R33" t="n">
-        <v>28.29825384563918</v>
+        <v>30.23404712774696</v>
       </c>
       <c r="S33" t="n">
-        <v>8.465887612057205</v>
+        <v>9.045011979797135</v>
       </c>
       <c r="T33" t="n">
-        <v>1.837107606961174</v>
+        <v>1.962778278496711</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03203664219526734</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4082483584664666</v>
       </c>
       <c r="H34" t="n">
-        <v>3.397300547609683</v>
+        <v>3.629699041638224</v>
       </c>
       <c r="I34" t="n">
-        <v>11.49107383588223</v>
+        <v>12.27714154370065</v>
       </c>
       <c r="J34" t="n">
-        <v>27.01513942613546</v>
+        <v>28.86315894357919</v>
       </c>
       <c r="K34" t="n">
-        <v>44.39417280005287</v>
+        <v>47.43103655637675</v>
       </c>
       <c r="L34" t="n">
-        <v>56.80925680532589</v>
+        <v>60.6953968578236</v>
       </c>
       <c r="M34" t="n">
-        <v>59.89739605565819</v>
+        <v>63.9947858639753</v>
       </c>
       <c r="N34" t="n">
-        <v>58.47316985471758</v>
+        <v>62.47313289150943</v>
       </c>
       <c r="O34" t="n">
-        <v>54.00943651762304</v>
+        <v>57.70404979487842</v>
       </c>
       <c r="P34" t="n">
-        <v>46.21440335930385</v>
+        <v>49.37578328216245</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.99645740698647</v>
+        <v>34.18523299849659</v>
       </c>
       <c r="R34" t="n">
-        <v>17.18103119476224</v>
+        <v>18.35633073613767</v>
       </c>
       <c r="S34" t="n">
-        <v>6.659125920007929</v>
+        <v>7.114655483456511</v>
       </c>
       <c r="T34" t="n">
-        <v>1.632649547419785</v>
+        <v>1.744333895265811</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02226809227998911</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8518475132480001</v>
+        <v>0.9101196844752654</v>
       </c>
       <c r="H35" t="n">
-        <v>8.723983345051083</v>
+        <v>9.320763218632313</v>
       </c>
       <c r="I35" t="n">
-        <v>32.84085125449356</v>
+        <v>35.0873891357327</v>
       </c>
       <c r="J35" t="n">
-        <v>72.29949287753253</v>
+        <v>77.24527057023262</v>
       </c>
       <c r="K35" t="n">
-        <v>108.3581981133204</v>
+        <v>115.7706368140706</v>
       </c>
       <c r="L35" t="n">
-        <v>134.4279264468839</v>
+        <v>143.6237121078306</v>
       </c>
       <c r="M35" t="n">
-        <v>149.576969660608</v>
+        <v>159.8090530466175</v>
       </c>
       <c r="N35" t="n">
-        <v>151.9972814076239</v>
+        <v>162.3949306001329</v>
       </c>
       <c r="O35" t="n">
-        <v>143.5267226977641</v>
+        <v>153.344927987632</v>
       </c>
       <c r="P35" t="n">
-        <v>122.4967372144541</v>
+        <v>130.8763482771488</v>
       </c>
       <c r="Q35" t="n">
-        <v>91.98994814626005</v>
+        <v>98.28268707687837</v>
       </c>
       <c r="R35" t="n">
-        <v>53.50986635406473</v>
+        <v>57.17030562991944</v>
       </c>
       <c r="S35" t="n">
-        <v>19.41147520813882</v>
+        <v>20.73935230998013</v>
       </c>
       <c r="T35" t="n">
-        <v>3.728962489243122</v>
+        <v>3.984048918790476</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06814780105984</v>
+        <v>0.07280957475802122</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.4869569613680633</v>
       </c>
       <c r="H36" t="n">
-        <v>4.401861752479334</v>
+        <v>4.702979074265244</v>
       </c>
       <c r="I36" t="n">
-        <v>15.69237727382505</v>
+        <v>16.76584274885657</v>
       </c>
       <c r="J36" t="n">
-        <v>43.0610826567472</v>
+        <v>46.00675396855024</v>
       </c>
       <c r="K36" t="n">
-        <v>73.59824892871555</v>
+        <v>78.63287038021048</v>
       </c>
       <c r="L36" t="n">
-        <v>98.96192827270181</v>
+        <v>105.7315981251139</v>
       </c>
       <c r="M36" t="n">
         <v>115.4839025616399</v>
@@ -33751,25 +33751,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O36" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P36" t="n">
-        <v>87.03372251564269</v>
+        <v>92.9874218598366</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.1797386213254</v>
+        <v>62.15962896340402</v>
       </c>
       <c r="R36" t="n">
-        <v>28.29825384563918</v>
+        <v>30.23404712774696</v>
       </c>
       <c r="S36" t="n">
-        <v>8.465887612057205</v>
+        <v>9.045011979797135</v>
       </c>
       <c r="T36" t="n">
-        <v>1.837107606961174</v>
+        <v>1.962778278496711</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03203664219526734</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4082483584664666</v>
       </c>
       <c r="H37" t="n">
-        <v>3.397300547609682</v>
+        <v>3.629699041638224</v>
       </c>
       <c r="I37" t="n">
-        <v>11.49107383588223</v>
+        <v>12.27714154370065</v>
       </c>
       <c r="J37" t="n">
-        <v>27.01513942613546</v>
+        <v>28.86315894357919</v>
       </c>
       <c r="K37" t="n">
-        <v>44.39417280005286</v>
+        <v>47.43103655637675</v>
       </c>
       <c r="L37" t="n">
-        <v>56.80925680532589</v>
+        <v>60.6953968578236</v>
       </c>
       <c r="M37" t="n">
-        <v>59.89739605565818</v>
+        <v>63.9947858639753</v>
       </c>
       <c r="N37" t="n">
-        <v>58.47316985471758</v>
+        <v>62.47313289150943</v>
       </c>
       <c r="O37" t="n">
-        <v>54.00943651762304</v>
+        <v>57.70404979487842</v>
       </c>
       <c r="P37" t="n">
-        <v>46.21440335930385</v>
+        <v>49.37578328216245</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.99645740698647</v>
+        <v>34.18523299849659</v>
       </c>
       <c r="R37" t="n">
-        <v>17.18103119476224</v>
+        <v>18.35633073613767</v>
       </c>
       <c r="S37" t="n">
-        <v>6.659125920007929</v>
+        <v>7.114655483456511</v>
       </c>
       <c r="T37" t="n">
-        <v>1.632649547419785</v>
+        <v>1.744333895265811</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02226809227998911</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8518475132480001</v>
+        <v>0.9101196844752654</v>
       </c>
       <c r="H38" t="n">
-        <v>8.723983345051083</v>
+        <v>9.320763218632313</v>
       </c>
       <c r="I38" t="n">
-        <v>32.84085125449356</v>
+        <v>35.0873891357327</v>
       </c>
       <c r="J38" t="n">
-        <v>72.29949287753253</v>
+        <v>77.24527057023262</v>
       </c>
       <c r="K38" t="n">
-        <v>108.3581981133204</v>
+        <v>115.7706368140706</v>
       </c>
       <c r="L38" t="n">
-        <v>134.4279264468839</v>
+        <v>143.6237121078306</v>
       </c>
       <c r="M38" t="n">
-        <v>149.576969660608</v>
+        <v>159.8090530466175</v>
       </c>
       <c r="N38" t="n">
-        <v>151.9972814076239</v>
+        <v>162.3949306001329</v>
       </c>
       <c r="O38" t="n">
-        <v>143.5267226977641</v>
+        <v>153.344927987632</v>
       </c>
       <c r="P38" t="n">
-        <v>122.4967372144541</v>
+        <v>130.8763482771488</v>
       </c>
       <c r="Q38" t="n">
-        <v>91.98994814626005</v>
+        <v>98.28268707687837</v>
       </c>
       <c r="R38" t="n">
-        <v>53.50986635406473</v>
+        <v>57.17030562991944</v>
       </c>
       <c r="S38" t="n">
-        <v>19.41147520813882</v>
+        <v>20.73935230998013</v>
       </c>
       <c r="T38" t="n">
-        <v>3.728962489243122</v>
+        <v>3.984048918790476</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06814780105984</v>
+        <v>0.07280957475802122</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.4869569613680633</v>
       </c>
       <c r="H39" t="n">
-        <v>4.401861752479334</v>
+        <v>4.702979074265244</v>
       </c>
       <c r="I39" t="n">
-        <v>15.69237727382505</v>
+        <v>16.76584274885657</v>
       </c>
       <c r="J39" t="n">
-        <v>43.0610826567472</v>
+        <v>46.00675396855024</v>
       </c>
       <c r="K39" t="n">
-        <v>73.59824892871555</v>
+        <v>78.63287038021048</v>
       </c>
       <c r="L39" t="n">
-        <v>98.96192827270181</v>
+        <v>105.7315981251139</v>
       </c>
       <c r="M39" t="n">
         <v>115.4839025616399</v>
@@ -33988,25 +33988,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O39" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P39" t="n">
-        <v>87.03372251564269</v>
+        <v>92.9874218598366</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.1797386213254</v>
+        <v>62.15962896340402</v>
       </c>
       <c r="R39" t="n">
-        <v>28.29825384563918</v>
+        <v>30.23404712774696</v>
       </c>
       <c r="S39" t="n">
-        <v>8.465887612057205</v>
+        <v>9.045011979797135</v>
       </c>
       <c r="T39" t="n">
-        <v>1.837107606961174</v>
+        <v>1.962778278496711</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03203664219526734</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4082483584664666</v>
       </c>
       <c r="H40" t="n">
-        <v>3.397300547609682</v>
+        <v>3.629699041638224</v>
       </c>
       <c r="I40" t="n">
-        <v>11.49107383588223</v>
+        <v>12.27714154370065</v>
       </c>
       <c r="J40" t="n">
-        <v>27.01513942613546</v>
+        <v>28.86315894357919</v>
       </c>
       <c r="K40" t="n">
-        <v>44.39417280005286</v>
+        <v>47.43103655637675</v>
       </c>
       <c r="L40" t="n">
-        <v>56.80925680532589</v>
+        <v>60.6953968578236</v>
       </c>
       <c r="M40" t="n">
-        <v>59.89739605565818</v>
+        <v>63.9947858639753</v>
       </c>
       <c r="N40" t="n">
-        <v>58.47316985471758</v>
+        <v>62.47313289150943</v>
       </c>
       <c r="O40" t="n">
-        <v>54.00943651762304</v>
+        <v>57.70404979487842</v>
       </c>
       <c r="P40" t="n">
-        <v>46.21440335930385</v>
+        <v>49.37578328216245</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.99645740698647</v>
+        <v>34.18523299849659</v>
       </c>
       <c r="R40" t="n">
-        <v>17.18103119476224</v>
+        <v>18.35633073613767</v>
       </c>
       <c r="S40" t="n">
-        <v>6.659125920007929</v>
+        <v>7.114655483456511</v>
       </c>
       <c r="T40" t="n">
-        <v>1.632649547419785</v>
+        <v>1.744333895265811</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02226809227998911</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8518475132480001</v>
+        <v>0.9101196844752654</v>
       </c>
       <c r="H41" t="n">
-        <v>8.723983345051083</v>
+        <v>9.320763218632313</v>
       </c>
       <c r="I41" t="n">
-        <v>32.84085125449356</v>
+        <v>35.0873891357327</v>
       </c>
       <c r="J41" t="n">
-        <v>72.29949287753253</v>
+        <v>77.24527057023262</v>
       </c>
       <c r="K41" t="n">
-        <v>108.3581981133204</v>
+        <v>115.7706368140706</v>
       </c>
       <c r="L41" t="n">
-        <v>134.4279264468839</v>
+        <v>143.6237121078306</v>
       </c>
       <c r="M41" t="n">
-        <v>149.576969660608</v>
+        <v>159.8090530466175</v>
       </c>
       <c r="N41" t="n">
-        <v>151.9972814076239</v>
+        <v>162.3949306001329</v>
       </c>
       <c r="O41" t="n">
-        <v>143.5267226977641</v>
+        <v>153.344927987632</v>
       </c>
       <c r="P41" t="n">
-        <v>122.4967372144541</v>
+        <v>130.8763482771488</v>
       </c>
       <c r="Q41" t="n">
-        <v>91.98994814626005</v>
+        <v>98.28268707687837</v>
       </c>
       <c r="R41" t="n">
-        <v>53.50986635406473</v>
+        <v>57.17030562991944</v>
       </c>
       <c r="S41" t="n">
-        <v>19.41147520813882</v>
+        <v>20.73935230998013</v>
       </c>
       <c r="T41" t="n">
-        <v>3.728962489243122</v>
+        <v>3.984048918790476</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06814780105984</v>
+        <v>0.07280957475802122</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.4869569613680633</v>
       </c>
       <c r="H42" t="n">
-        <v>4.401861752479334</v>
+        <v>4.702979074265244</v>
       </c>
       <c r="I42" t="n">
-        <v>15.69237727382505</v>
+        <v>16.76584274885657</v>
       </c>
       <c r="J42" t="n">
-        <v>43.0610826567472</v>
+        <v>46.00675396855024</v>
       </c>
       <c r="K42" t="n">
-        <v>73.59824892871555</v>
+        <v>78.63287038021048</v>
       </c>
       <c r="L42" t="n">
-        <v>98.96192827270181</v>
+        <v>105.7315981251139</v>
       </c>
       <c r="M42" t="n">
         <v>115.4839025616399</v>
@@ -34225,25 +34225,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O42" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P42" t="n">
-        <v>87.03372251564269</v>
+        <v>92.9874218598366</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.1797386213254</v>
+        <v>62.15962896340402</v>
       </c>
       <c r="R42" t="n">
-        <v>28.29825384563918</v>
+        <v>30.23404712774696</v>
       </c>
       <c r="S42" t="n">
-        <v>8.465887612057205</v>
+        <v>9.045011979797135</v>
       </c>
       <c r="T42" t="n">
-        <v>1.837107606961174</v>
+        <v>1.962778278496711</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03203664219526734</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4082483584664666</v>
       </c>
       <c r="H43" t="n">
-        <v>3.397300547609682</v>
+        <v>3.629699041638224</v>
       </c>
       <c r="I43" t="n">
-        <v>11.49107383588223</v>
+        <v>12.27714154370065</v>
       </c>
       <c r="J43" t="n">
-        <v>27.01513942613546</v>
+        <v>28.86315894357919</v>
       </c>
       <c r="K43" t="n">
-        <v>44.39417280005286</v>
+        <v>47.43103655637675</v>
       </c>
       <c r="L43" t="n">
-        <v>56.80925680532589</v>
+        <v>60.6953968578236</v>
       </c>
       <c r="M43" t="n">
-        <v>59.89739605565818</v>
+        <v>63.9947858639753</v>
       </c>
       <c r="N43" t="n">
-        <v>58.47316985471758</v>
+        <v>62.47313289150943</v>
       </c>
       <c r="O43" t="n">
-        <v>54.00943651762304</v>
+        <v>57.70404979487842</v>
       </c>
       <c r="P43" t="n">
-        <v>46.21440335930385</v>
+        <v>49.37578328216245</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.99645740698647</v>
+        <v>34.18523299849659</v>
       </c>
       <c r="R43" t="n">
-        <v>17.18103119476224</v>
+        <v>18.35633073613767</v>
       </c>
       <c r="S43" t="n">
-        <v>6.659125920007929</v>
+        <v>7.114655483456511</v>
       </c>
       <c r="T43" t="n">
-        <v>1.632649547419785</v>
+        <v>1.744333895265811</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02226809227998911</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9690302605678959</v>
+        <v>0.9101196844752654</v>
       </c>
       <c r="H44" t="n">
-        <v>9.924081156040966</v>
+        <v>9.320763218632315</v>
       </c>
       <c r="I44" t="n">
-        <v>37.35853912054384</v>
+        <v>35.08738913573271</v>
       </c>
       <c r="J44" t="n">
-        <v>82.24523207787453</v>
+        <v>77.24527057023262</v>
       </c>
       <c r="K44" t="n">
-        <v>123.2642830077136</v>
+        <v>115.7706368140706</v>
       </c>
       <c r="L44" t="n">
-        <v>152.9202428445684</v>
+        <v>143.6237121078306</v>
       </c>
       <c r="M44" t="n">
-        <v>170.1532347409427</v>
+        <v>159.8090530466175</v>
       </c>
       <c r="N44" t="n">
-        <v>172.9064919687812</v>
+        <v>162.3949306001329</v>
       </c>
       <c r="O44" t="n">
-        <v>163.2706973152592</v>
+        <v>153.344927987632</v>
       </c>
       <c r="P44" t="n">
-        <v>139.3477627574892</v>
+        <v>130.8763482771488</v>
       </c>
       <c r="Q44" t="n">
-        <v>104.6443665509014</v>
+        <v>98.28268707687837</v>
       </c>
       <c r="R44" t="n">
-        <v>60.87084710539815</v>
+        <v>57.17030562991944</v>
       </c>
       <c r="S44" t="n">
-        <v>22.08177706269095</v>
+        <v>20.73935230998013</v>
       </c>
       <c r="T44" t="n">
-        <v>4.241929965635967</v>
+        <v>3.984048918790476</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07752242084543166</v>
+        <v>0.07280957475802122</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5184768983783797</v>
+        <v>0.4869569613680633</v>
       </c>
       <c r="H45" t="n">
-        <v>5.007395308022774</v>
+        <v>4.702979074265245</v>
       </c>
       <c r="I45" t="n">
-        <v>17.85106865030825</v>
+        <v>16.76584274885657</v>
       </c>
       <c r="J45" t="n">
-        <v>48.98469678933632</v>
+        <v>46.00675396855024</v>
       </c>
       <c r="K45" t="n">
-        <v>83.72264898068777</v>
+        <v>78.63287038021048</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>105.7315981251139</v>
       </c>
       <c r="M45" t="n">
         <v>115.4839025616399</v>
@@ -34465,22 +34465,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>99.0063473754294</v>
+        <v>92.9874218598366</v>
       </c>
       <c r="Q45" t="n">
-        <v>66.18312127370336</v>
+        <v>62.15962896340402</v>
       </c>
       <c r="R45" t="n">
-        <v>32.19104812914187</v>
+        <v>30.23404712774696</v>
       </c>
       <c r="S45" t="n">
-        <v>9.630480985229987</v>
+        <v>9.045011979797135</v>
       </c>
       <c r="T45" t="n">
-        <v>2.089825743902328</v>
+        <v>1.962778278496711</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03411032226173553</v>
+        <v>0.03203664219526734</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4346736148326077</v>
+        <v>0.4082483584664667</v>
       </c>
       <c r="H46" t="n">
-        <v>3.864643593693551</v>
+        <v>3.629699041638224</v>
       </c>
       <c r="I46" t="n">
-        <v>13.07182107151151</v>
+        <v>12.27714154370065</v>
       </c>
       <c r="J46" t="n">
-        <v>30.73142456866536</v>
+        <v>28.86315894357919</v>
       </c>
       <c r="K46" t="n">
-        <v>50.50117088691568</v>
+        <v>47.43103655637675</v>
       </c>
       <c r="L46" t="n">
-        <v>64.62411179065879</v>
+        <v>60.69539685782361</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13706491416958</v>
+        <v>63.99478586397531</v>
       </c>
       <c r="N46" t="n">
-        <v>66.516917804339</v>
+        <v>62.47313289150944</v>
       </c>
       <c r="O46" t="n">
-        <v>61.43913966743079</v>
+        <v>57.70404979487842</v>
       </c>
       <c r="P46" t="n">
-        <v>52.57179792484555</v>
+        <v>49.37578328216245</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.39798787475591</v>
+        <v>34.18523299849659</v>
       </c>
       <c r="R46" t="n">
-        <v>19.5445063542007</v>
+        <v>18.35633073613767</v>
       </c>
       <c r="S46" t="n">
-        <v>7.57517563303735</v>
+        <v>7.114655483456511</v>
       </c>
       <c r="T46" t="n">
-        <v>1.857241808830232</v>
+        <v>1.744333895265811</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02370946989996045</v>
+        <v>0.02226809227998911</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
